--- a/TestData/ShareholdingCategory (3).xlsx
+++ b/TestData/ShareholdingCategory (3).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\Secreterial\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Secretarial-Project-main\Secretarial-Project-main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DD0221-8CC7-40C8-9FA2-070893EC6350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ShareHoldingCategory" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>SR.NO</t>
   </si>
@@ -61,13 +60,16 @@
     <t> </t>
   </si>
   <si>
-    <t>15-05-2023</t>
+    <t>17-06-2023</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -479,20 +481,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -550,15 +552,11 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
@@ -610,14 +608,14 @@
       <c r="C8" s="5">
         <v>2000</v>
       </c>
-      <c r="D8" s="5">
-        <v>10</v>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="5">
         <v>2000</v>
       </c>
-      <c r="F8" s="6">
-        <v>20</v>
+      <c r="F8" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
